--- a/数据整理/stocks/其他/BKNG-Booking控股股份有限公司.xlsx
+++ b/数据整理/stocks/其他/BKNG-Booking控股股份有限公司.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -821,4 +822,174 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002423</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华宝兴业标普美国消费(QDII-LOF)美元</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0681</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>162415</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华宝标普美国消费(QDII-LOF)人民币A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0681</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009975</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华宝标普美国消费(QDII-LOF)人民币C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/其他/BKNG-Booking控股股份有限公司.xlsx
+++ b/数据整理/stocks/其他/BKNG-Booking控股股份有限公司.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -992,4 +993,174 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>162415</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华宝标普美国消费(QDII-LOF)人民币A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0800</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002423</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华宝兴业标普美国消费(QDII-LOF)美元</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0800</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009975</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华宝标普美国消费(QDII-LOF)人民币C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/其他/BKNG-Booking控股股份有限公司.xlsx
+++ b/数据整理/stocks/其他/BKNG-Booking控股股份有限公司.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1163,4 +1164,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/其他/BKNG-Booking控股股份有限公司.xlsx
+++ b/数据整理/stocks/其他/BKNG-Booking控股股份有限公司.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1172,7 +1173,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1183,17 +1184,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1203,14 +1224,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.17</v>
+          <t>162415</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华宝标普美国消费(QDII-LOF)人民币A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.91</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0963</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1219,14 +1262,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>3</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.14</v>
+          <t>002423</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华宝兴业标普美国消费(QDII-LOF)美元</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.91</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0759</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -1235,14 +1300,120 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>009975</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华宝标普美国消费(QDII-LOF)人民币C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.91</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0161</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="5">
@@ -1251,13 +1422,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>4</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.13</v>
       </c>
     </row>

--- a/数据整理/stocks/其他/BKNG-Booking控股股份有限公司.xlsx
+++ b/数据整理/stocks/其他/BKNG-Booking控股股份有限公司.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1343,7 +1344,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1354,17 +1355,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1374,14 +1395,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.19</v>
+          <t>002423</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华宝兴业标普美国消费(QDII-LOF)美元</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0796</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1390,14 +1433,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>3</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.17</v>
+          <t>162415</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华宝标普美国消费(QDII-LOF)人民币A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0796</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -1406,14 +1471,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.14</v>
+          <t>009975</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华宝标普美国消费(QDII-LOF)人民币C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1422,14 +1509,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>3</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.15</v>
+          <t>519981</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>长信美国标准普尔100等权重指数增强(QDII)</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>84.16</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -1438,13 +1547,167 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>011706</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>长信美国标准普尔100等权重指数增强(QDII) - 美元</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>84.16</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>4</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.13</v>
       </c>
     </row>

--- a/数据整理/stocks/其他/BKNG-Booking控股股份有限公司.xlsx
+++ b/数据整理/stocks/其他/BKNG-Booking控股股份有限公司.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1590,7 +1591,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1601,17 +1602,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1621,14 +1642,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.18</v>
+          <t>002423</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华宝兴业标普美国消费(QDII-LOF)美元</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0703</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1637,14 +1680,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>3</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.19</v>
+          <t>162415</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华宝标普美国消费(QDII-LOF)人民币A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0563</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -1653,14 +1718,120 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>009975</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华宝标普美国消费(QDII-LOF)人民币C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>0.17</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="5">
@@ -1669,14 +1840,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>0.14</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="6">
@@ -1685,14 +1856,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="7">
@@ -1701,13 +1872,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>4</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.13</v>
       </c>
     </row>

--- a/数据整理/stocks/其他/BKNG-Booking控股股份有限公司.xlsx
+++ b/数据整理/stocks/其他/BKNG-Booking控股股份有限公司.xlsx
@@ -6,14 +6,14 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,205 +457,145 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>002423</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>华宝兴业标普美国消费(QDII-LOF)美元</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>2.37</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.90</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.57</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0609</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>8</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.14</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>162415</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>华宝标普美国消费(QDII-LOF)人民币A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2.37</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.90</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.57</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0609</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>8</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.18</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>009975</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>华宝标普美国消费(QDII-LOF)人民币C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.31</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.90</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.57</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0080</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>8</v>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.19</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="A5" s="2" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>519981</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>长信美国标准普尔100等权重指数增强(QDII)</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.36</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>89.56</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0.98</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0035</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>2</v>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>4</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.13</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -686,7 +626,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -726,17 +666,17 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2.87</t>
+          <t>3.27</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.66</t>
+          <t>94.43</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.45</t>
+          <t>2.15</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -745,7 +685,7 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -764,26 +704,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.87</t>
+          <t>2.62</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.66</t>
+          <t>94.43</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.45</t>
+          <t>2.15</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0703</t>
+          <t>0.0563</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -802,26 +742,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.66</t>
+          <t>94.43</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.45</t>
+          <t>2.15</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0076</t>
+          <t>0.0140</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -835,7 +775,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -856,7 +796,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -896,22 +836,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3.11</t>
+          <t>3.62</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.65</t>
+          <t>94.37</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.19</t>
+          <t>2.20</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0681</t>
+          <t>0.0796</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -934,22 +874,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3.11</t>
+          <t>3.62</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.65</t>
+          <t>94.37</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.19</t>
+          <t>2.20</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0681</t>
+          <t>0.0796</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -972,26 +912,102 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.33</t>
+          <t>0.61</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.65</t>
+          <t>94.37</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.19</t>
+          <t>2.20</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0072</t>
+          <t>0.0134</t>
         </is>
       </c>
       <c r="H4" t="n">
         <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>519981</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>长信美国标准普尔100等权重指数增强(QDII)</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>84.16</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011706</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>长信美国标准普尔100等权重指数增强(QDII) - 美元</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>84.16</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1026,7 +1042,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1066,22 +1082,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3.39</t>
+          <t>4.30</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.61</t>
+          <t>94.91</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.36</t>
+          <t>2.24</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0800</t>
+          <t>0.0963</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1109,17 +1125,17 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.61</t>
+          <t>94.91</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.36</t>
+          <t>2.24</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0800</t>
+          <t>0.0759</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1142,22 +1158,22 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.54</t>
+          <t>0.72</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.61</t>
+          <t>94.91</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.36</t>
+          <t>2.24</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0127</t>
+          <t>0.0161</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -1196,7 +1212,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1236,22 +1252,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4.30</t>
+          <t>3.39</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.91</t>
+          <t>94.61</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.24</t>
+          <t>2.36</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0963</t>
+          <t>0.0800</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1279,17 +1295,17 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.91</t>
+          <t>94.61</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.24</t>
+          <t>2.36</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0759</t>
+          <t>0.0800</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1312,22 +1328,22 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.72</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.91</t>
+          <t>94.61</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.24</t>
+          <t>2.36</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0161</t>
+          <t>0.0127</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -1345,7 +1361,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1366,7 +1382,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1406,22 +1422,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3.62</t>
+          <t>3.11</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.37</t>
+          <t>94.65</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>2.19</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0796</t>
+          <t>0.0681</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1444,22 +1460,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3.62</t>
+          <t>3.11</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.37</t>
+          <t>94.65</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>2.19</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0796</t>
+          <t>0.0681</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1482,102 +1498,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.61</t>
+          <t>0.33</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.37</t>
+          <t>94.65</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>2.19</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0134</t>
+          <t>0.0072</t>
         </is>
       </c>
       <c r="H4" t="n">
         <v>9</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>519981</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>长信美国标准普尔100等权重指数增强(QDII)</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.47</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>84.16</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0.88</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0041</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>011706</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>长信美国标准普尔100等权重指数增强(QDII) - 美元</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.47</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>84.16</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0.88</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0041</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1612,7 +1552,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1652,17 +1592,17 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3.27</t>
+          <t>2.87</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.43</t>
+          <t>94.66</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.15</t>
+          <t>2.45</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -1671,7 +1611,7 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1690,26 +1630,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.62</t>
+          <t>2.87</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.43</t>
+          <t>94.66</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.15</t>
+          <t>2.45</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0563</t>
+          <t>0.0703</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -1728,26 +1668,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.65</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.43</t>
+          <t>94.66</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.15</t>
+          <t>2.45</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0140</t>
+          <t>0.0076</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1761,144 +1701,204 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>002423</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华宝兴业标普美国消费(QDII-LOF)美元</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0609</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>162415</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华宝标普美国消费(QDII-LOF)人民币A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0609</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009975</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华宝标普美国消费(QDII-LOF)人民币C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="D2" t="n">
-        <v>0.14</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>5</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.18</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>519981</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>长信美国标准普尔100等权重指数增强(QDII)</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.56</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>3</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.17</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>3</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.14</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>3</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>4</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.13</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/其他/BKNG-Booking控股股份有限公司.xlsx
+++ b/数据整理/stocks/其他/BKNG-Booking控股股份有限公司.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>0.18</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>0.17</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>0.14</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>3</v>
       </c>
       <c r="D7" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>3</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>4</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.13</v>
       </c>
     </row>
@@ -661,31 +678,31 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华宝兴业标普美国消费(QDII-LOF)美元</t>
+          <t>华宝标普美国品质消费股票（LOF）美元</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3.27</t>
+          <t>3.59</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.43</t>
+          <t>94.37</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.15</t>
+          <t>2.09</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0703</t>
+          <t>0.0750</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -699,31 +716,31 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华宝标普美国消费(QDII-LOF)人民币A</t>
+          <t>华宝标普美国品质消费股票（LOF）人民币A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.62</t>
+          <t>2.86</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.43</t>
+          <t>94.37</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.15</t>
+          <t>2.09</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0563</t>
+          <t>0.0598</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -737,31 +754,31 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华宝标普美国消费(QDII-LOF)人民币C</t>
+          <t>华宝标普美国品质消费股票（LOF）人民币C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.65</t>
+          <t>0.73</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.43</t>
+          <t>94.37</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.15</t>
+          <t>2.09</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0140</t>
+          <t>0.0153</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -770,6 +787,176 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002423</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华宝兴业标普美国消费(QDII-LOF)美元</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0703</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>162415</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华宝标普美国消费(QDII-LOF)人民币A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0563</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009975</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华宝标普美国消费(QDII-LOF)人民币C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1008,176 +1195,6 @@
       </c>
       <c r="H6" t="n">
         <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>162415</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>华宝标普美国消费(QDII-LOF)人民币A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>4.30</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.91</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.24</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0963</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>002423</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>华宝兴业标普美国消费(QDII-LOF)美元</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>3.39</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.91</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.24</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0759</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>009975</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>华宝标普美国消费(QDII-LOF)人民币C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.72</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.91</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.24</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0161</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1212,7 +1229,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1252,22 +1269,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3.39</t>
+          <t>4.30</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.61</t>
+          <t>94.91</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.36</t>
+          <t>2.24</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0800</t>
+          <t>0.0963</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1295,17 +1312,17 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.61</t>
+          <t>94.91</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.36</t>
+          <t>2.24</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0800</t>
+          <t>0.0759</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1328,22 +1345,22 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.54</t>
+          <t>0.72</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.61</t>
+          <t>94.91</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.36</t>
+          <t>2.24</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0127</t>
+          <t>0.0161</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -1412,32 +1429,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>002423</t>
+          <t>162415</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华宝兴业标普美国消费(QDII-LOF)美元</t>
+          <t>华宝标普美国消费(QDII-LOF)人民币A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3.11</t>
+          <t>3.39</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.65</t>
+          <t>94.61</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.19</t>
+          <t>2.36</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0681</t>
+          <t>0.0800</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1450,32 +1467,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>162415</t>
+          <t>002423</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华宝标普美国消费(QDII-LOF)人民币A</t>
+          <t>华宝兴业标普美国消费(QDII-LOF)美元</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3.11</t>
+          <t>3.39</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.65</t>
+          <t>94.61</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.19</t>
+          <t>2.36</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0681</t>
+          <t>0.0800</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1498,22 +1515,22 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.33</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.65</t>
+          <t>94.61</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.19</t>
+          <t>2.36</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0072</t>
+          <t>0.0127</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -1592,22 +1609,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2.87</t>
+          <t>3.11</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.66</t>
+          <t>94.65</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.45</t>
+          <t>2.19</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0703</t>
+          <t>0.0681</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1630,22 +1647,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.87</t>
+          <t>3.11</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.66</t>
+          <t>94.65</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.45</t>
+          <t>2.19</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0703</t>
+          <t>0.0681</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1668,22 +1685,22 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>0.33</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.66</t>
+          <t>94.65</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.45</t>
+          <t>2.19</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0076</t>
+          <t>0.0072</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -1696,6 +1713,176 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002423</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华宝兴业标普美国消费(QDII-LOF)美元</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0703</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>162415</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华宝标普美国消费(QDII-LOF)人民币A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0703</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009975</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华宝标普美国消费(QDII-LOF)人民币C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/其他/BKNG-Booking控股股份有限公司.xlsx
+++ b/数据整理/stocks/其他/BKNG-Booking控股股份有限公司.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>0.18</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>0.17</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>3</v>
       </c>
       <c r="D7" t="n">
-        <v>0.14</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>3</v>
       </c>
       <c r="D8" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="9">
@@ -601,18 +602,242 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>3</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>4</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>0.13</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002423</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华宝兴业标普美国消费(QDII-LOF)美元</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0609</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>162415</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华宝标普美国消费(QDII-LOF)人民币A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0609</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009975</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华宝标普美国消费(QDII-LOF)人民币C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>519981</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>长信美国标准普尔100等权重指数增强(QDII)</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.56</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -622,7 +847,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -683,26 +908,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3.59</t>
+          <t>3.86</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.37</t>
+          <t>94.64</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.09</t>
+          <t>2.43</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0750</t>
+          <t>0.0938</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -726,21 +951,21 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.37</t>
+          <t>94.64</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.09</t>
+          <t>2.43</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0598</t>
+          <t>0.0695</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -759,26 +984,102 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.73</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.37</t>
+          <t>94.64</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.09</t>
+          <t>2.43</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0153</t>
+          <t>0.0243</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>014002</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>浦银安盛全球智能科技股票（QDII）C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>42.55</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006555</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>浦银安盛全球智能科技股票（QDII）A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>42.55</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -848,31 +1149,31 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华宝兴业标普美国消费(QDII-LOF)美元</t>
+          <t>华宝标普美国品质消费股票（LOF）美元</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3.27</t>
+          <t>3.59</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.43</t>
+          <t>94.37</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.15</t>
+          <t>2.09</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0703</t>
+          <t>0.0750</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -886,31 +1187,31 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华宝标普美国消费(QDII-LOF)人民币A</t>
+          <t>华宝标普美国品质消费股票（LOF）人民币A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.62</t>
+          <t>2.86</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.43</t>
+          <t>94.37</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.15</t>
+          <t>2.09</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0563</t>
+          <t>0.0598</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -924,31 +1225,31 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华宝标普美国消费(QDII-LOF)人民币C</t>
+          <t>华宝标普美国品质消费股票（LOF）人民币C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.65</t>
+          <t>0.73</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.43</t>
+          <t>94.37</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.15</t>
+          <t>2.09</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0140</t>
+          <t>0.0153</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -957,6 +1258,176 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002423</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华宝兴业标普美国消费(QDII-LOF)美元</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0703</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>162415</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华宝标普美国消费(QDII-LOF)人民币A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0563</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009975</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华宝标普美国消费(QDII-LOF)人民币C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1195,176 +1666,6 @@
       </c>
       <c r="H6" t="n">
         <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>162415</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>华宝标普美国消费(QDII-LOF)人民币A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>4.30</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.91</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.24</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0963</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>002423</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>华宝兴业标普美国消费(QDII-LOF)美元</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>3.39</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.91</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.24</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0759</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>009975</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>华宝标普美国消费(QDII-LOF)人民币C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.72</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.91</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.24</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0161</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1399,7 +1700,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1439,22 +1740,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3.39</t>
+          <t>4.30</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.61</t>
+          <t>94.91</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.36</t>
+          <t>2.24</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0800</t>
+          <t>0.0963</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1482,17 +1783,17 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.61</t>
+          <t>94.91</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.36</t>
+          <t>2.24</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0800</t>
+          <t>0.0759</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1515,22 +1816,22 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.54</t>
+          <t>0.72</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.61</t>
+          <t>94.91</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.36</t>
+          <t>2.24</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0127</t>
+          <t>0.0161</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -1599,32 +1900,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>002423</t>
+          <t>162415</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华宝兴业标普美国消费(QDII-LOF)美元</t>
+          <t>华宝标普美国消费(QDII-LOF)人民币A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3.11</t>
+          <t>3.39</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.65</t>
+          <t>94.61</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.19</t>
+          <t>2.36</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0681</t>
+          <t>0.0800</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1637,32 +1938,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>162415</t>
+          <t>002423</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华宝标普美国消费(QDII-LOF)人民币A</t>
+          <t>华宝兴业标普美国消费(QDII-LOF)美元</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3.11</t>
+          <t>3.39</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.65</t>
+          <t>94.61</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.19</t>
+          <t>2.36</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0681</t>
+          <t>0.0800</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1685,22 +1986,22 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.33</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.65</t>
+          <t>94.61</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.19</t>
+          <t>2.36</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0072</t>
+          <t>0.0127</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -1779,22 +2080,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2.87</t>
+          <t>3.11</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.66</t>
+          <t>94.65</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.45</t>
+          <t>2.19</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0703</t>
+          <t>0.0681</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1817,22 +2118,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.87</t>
+          <t>3.11</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.66</t>
+          <t>94.65</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.45</t>
+          <t>2.19</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0703</t>
+          <t>0.0681</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1855,22 +2156,22 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>0.33</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.66</t>
+          <t>94.65</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.45</t>
+          <t>2.19</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0076</t>
+          <t>0.0072</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -1888,53 +2189,53 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>基金金额</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
@@ -1949,30 +2250,30 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2.37</t>
+          <t>2.87</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.90</t>
+          <t>94.66</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.57</t>
+          <t>2.45</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0609</t>
+          <t>0.0703</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
@@ -1987,30 +2288,30 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.37</t>
+          <t>2.87</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.90</t>
+          <t>94.66</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.57</t>
+          <t>2.45</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0609</t>
+          <t>0.0703</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
@@ -2030,62 +2331,24 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.90</t>
+          <t>94.66</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.57</t>
+          <t>2.45</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0080</t>
+          <t>0.0076</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>519981</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>长信美国标准普尔100等权重指数增强(QDII)</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.36</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>89.56</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0.98</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0035</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>